--- a/Denver_Nuggets_2025-26_stats.xlsx
+++ b/Denver_Nuggets_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,162 +1681,600 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Christian Braun</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julian Strawther</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Hunter Tyson</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Peyton Watson</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tim Hardaway Jr.</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Bruce Brown</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DaRon Holmes II</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nikola Jokić</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jonas Valančiūnas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Spencer Jones</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Zeke Nnaji</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Pickett</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Jamal Murray</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Gordon</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nikola Jokić</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25.22222222222222</v>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>22.75</v>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20.125</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11.88888888888889</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11.44444444444444</v>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jonas Valančiūnas</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8.888888888888889</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.111111111111111</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.333333333333333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Julian Strawther</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.833333333333333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jalen Pickett</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Zeke Nnaji</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Spencer Jones</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>DaRon Holmes II</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Hunter Tyson</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1842,6 +2284,625 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Christian Braun</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Julian Strawther</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Hunter Tyson</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Peyton Watson</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tim Hardaway Jr.</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Bruce Brown</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DaRon Holmes II</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nikola Jokić</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jonas Valančiūnas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Spencer Jones</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Zeke Nnaji</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Pickett</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Jamal Murray</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Gordon</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1863,7 +2924,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
@@ -1874,7 +2935,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.88888888888889</v>
+        <v>25.22222222222222</v>
       </c>
     </row>
     <row r="3">
@@ -1884,12 +2945,193 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.625</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Aaron Gordon</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20.125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Christian Braun</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11.88888888888889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tim Hardaway Jr.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.44444444444444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jonas Valančiūnas</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.888888888888889</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peyton Watson</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.111111111111111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bruce Brown</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Julian Strawther</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jalen Pickett</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Zeke Nnaji</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Spencer Jones</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DaRon Holmes II</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hunter Tyson</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nikola Jokić</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11.88888888888889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jamal Murray</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Christian Braun</t>
         </is>
       </c>
@@ -2011,6 +3253,368 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>DaRon Holmes II</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nikola Jokić</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aaron Gordon</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jamal Murray</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Christian Braun</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.777777777777778</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jonas Valančiūnas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.777777777777778</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bruce Brown</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.111111111111111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Peyton Watson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hunter Tyson</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tim Hardaway Jr.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.888888888888889</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Julian Strawther</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jalen Pickett</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Zeke Nnaji</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Spencer Jones</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DaRon Holmes II</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tim Hardaway Jr.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.555555555555555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jamal Murray</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aaron Gordon</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nikola Jokić</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bruce Brown</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DaRon Holmes II</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Christian Braun</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Peyton Watson</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Julian Strawther</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jonas Valančiūnas</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Zeke Nnaji</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jalen Pickett</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Spencer Jones</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hunter Tyson</t>
         </is>
       </c>
       <c r="B16" t="n">

--- a/Denver_Nuggets_2025-26_stats.xlsx
+++ b/Denver_Nuggets_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1039,120 @@
       </c>
       <c r="Q10" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>55</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,6 +1771,120 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1670,7 +1899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2276,6 +2505,120 @@
       </c>
       <c r="Q10" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2895,6 +3238,120 @@
       </c>
       <c r="Q10" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +3392,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.22222222222222</v>
+        <v>28.81818181818182</v>
       </c>
     </row>
     <row r="3">
@@ -2945,7 +3402,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -2955,7 +3412,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.125</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="5">
@@ -2965,7 +3422,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.88888888888889</v>
+        <v>11.36363636363636</v>
       </c>
     </row>
     <row r="6">
@@ -2975,7 +3432,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.44444444444444</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2985,7 +3442,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.888888888888889</v>
+        <v>8.909090909090908</v>
       </c>
     </row>
     <row r="8">
@@ -2995,27 +3452,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7.181818181818182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.111111111111111</v>
+        <v>6.636363636363637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3025,7 +3482,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.833333333333333</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="12">
@@ -3035,27 +3492,27 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Spencer Jones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.2</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spencer Jones</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -3116,7 +3573,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.88888888888889</v>
+        <v>10.90909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -3126,7 +3583,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.625</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4">
@@ -3136,7 +3593,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.111111111111111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3146,17 +3603,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.666666666666667</v>
+        <v>1.636363636363636</v>
       </c>
     </row>
     <row r="7">
@@ -3166,17 +3623,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.625</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.555555555555556</v>
+        <v>1.454545454545455</v>
       </c>
     </row>
     <row r="9">
@@ -3186,7 +3643,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.555555555555556</v>
+        <v>1.363636363636364</v>
       </c>
     </row>
     <row r="10">
@@ -3196,7 +3653,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.222222222222222</v>
+        <v>1.181818181818182</v>
       </c>
     </row>
     <row r="11">
@@ -3206,7 +3663,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.2</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -3216,7 +3673,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -3226,7 +3683,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="14">
@@ -3236,7 +3693,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -3297,7 +3754,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>13.09090909090909</v>
       </c>
     </row>
     <row r="3">
@@ -3307,7 +3764,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.375</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4">
@@ -3317,27 +3774,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Jonas Valančiūnas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.777777777777778</v>
+        <v>4.818181818181818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jonas Valančiūnas</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.777777777777778</v>
+        <v>4.363636363636363</v>
       </c>
     </row>
     <row r="7">
@@ -3347,7 +3804,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.111111111111111</v>
+        <v>4.363636363636363</v>
       </c>
     </row>
     <row r="8">
@@ -3357,7 +3814,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3.727272727272727</v>
       </c>
     </row>
     <row r="9">
@@ -3367,7 +3824,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.666666666666667</v>
+        <v>2.636363636363636</v>
       </c>
     </row>
     <row r="10">
@@ -3377,7 +3834,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -3387,7 +3844,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.888888888888889</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="12">
@@ -3397,7 +3854,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.833333333333333</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="13">
@@ -3417,7 +3874,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -3427,7 +3884,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="16">
@@ -3478,7 +3935,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.555555555555555</v>
+        <v>2.545454545454545</v>
       </c>
     </row>
     <row r="3">
@@ -3488,7 +3945,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -3498,7 +3955,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
@@ -3508,47 +3965,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.555555555555556</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DaRon Holmes II</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>DaRon Holmes II</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3558,13 +4015,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Julian Strawther</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3574,37 +4031,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jonas Valančiūnas</t>
+          <t>Spencer Jones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Julian Strawther</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jalen Pickett</t>
+          <t>Jonas Valančiūnas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spencer Jones</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3619,6 +4076,283 @@
       </c>
       <c r="B16" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>137</v>
+      </c>
+      <c r="E2" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111</v>
+      </c>
+      <c r="E3" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>127</v>
+      </c>
+      <c r="D4" t="n">
+        <v>114</v>
+      </c>
+      <c r="E4" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>122</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88</v>
+      </c>
+      <c r="E5" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>107</v>
+      </c>
+      <c r="D6" t="n">
+        <v>109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>130</v>
+      </c>
+      <c r="D7" t="n">
+        <v>124</v>
+      </c>
+      <c r="E7" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>122</v>
+      </c>
+      <c r="D8" t="n">
+        <v>112</v>
+      </c>
+      <c r="E8" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>129</v>
+      </c>
+      <c r="D9" t="n">
+        <v>104</v>
+      </c>
+      <c r="E9" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>117</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>122</v>
+      </c>
+      <c r="D11" t="n">
+        <v>108</v>
+      </c>
+      <c r="E11" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>130</v>
+      </c>
+      <c r="D12" t="n">
+        <v>116</v>
+      </c>
+      <c r="E12" t="n">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
